--- a/biology/Botanique/Basellaceae/Basellaceae.xlsx
+++ b/biology/Botanique/Basellaceae/Basellaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La petite famille des Basellaceae (Basellacées) regroupe des plantes dicotylédones ; elle comprend une grosse vingtaine d'espèces réparties en 3 à 4 genres.
 Ce sont des plantes herbacées, pérennes, tubéreuses ou rhizomateuses, des régions tropicales d'Afrique, d'Amérique et d'Asie.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Basella dérivé du mot vasala ou basella-kira, nom Malabar de cette plante[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Basella dérivé du mot vasala ou basella-kira, nom Malabar de cette plante.
 </t>
         </is>
       </c>
@@ -543,14 +557,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (2 fév. 2017)[2], World Checklist of Selected Plant Families (WCSP)  (2 fév. 2017)[3] et DELTA Angio           (2 fév. 2017)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (2 fév. 2017), World Checklist of Selected Plant Families (WCSP)  (2 fév. 2017) et DELTA Angio           (2 fév. 2017) :
 genre Anredera Juss. (1789)
 genre Basella L. (1753)
 genre Tournonia (hr) Moq. (1849)
 genre Ullucus Caldas (1809)
-Selon ITIS      (2 fév. 2017)[5] et NCBI  (2 fév. 2017)[6] :
+Selon ITIS      (2 fév. 2017) et NCBI  (2 fév. 2017) :
 genre Anredera Juss.
 genre Basella L.
 genre Ullucus Caldas</t>
@@ -581,9 +597,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (30 avr. 2010)[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (30 avr. 2010) :
 genre Anredera Juss. (1789)
 Anredera aspera Sperling (1995 publ. 1996)
 Anredera baselloides (Kunth) Baill. (1888)
@@ -607,7 +625,7 @@
 Tournonia hookeriana Moq. (1849)
 genre Ullucus Caldas (1809)
 Ullucus tuberosus Caldas (1809) - Ulluco
-Selon NCBI  (30 avr. 2010)[8] :
+Selon NCBI  (30 avr. 2010) :
 genre Anredera
 Anredera brachystachys
 Anredera cordifolia
